--- a/CashFlow/RSG_cashflow.xlsx
+++ b/CashFlow/RSG_cashflow.xlsx
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2743000000.0</v>
+        <v>-46700000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2742000000.0</v>
+        <v>-44700000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2073900000.0</v>
+        <v>-67200000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1475300000.0</v>
+        <v>-11500000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>768700000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>18000000.0</v>
